--- a/raw/China_Procurement_Thresholds_2014_2024.xlsx
+++ b/raw/China_Procurement_Thresholds_2014_2024.xlsx
@@ -8,20 +8,33 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yxy/UChi/Summer2025/Procurement/raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95E48806-EF6B-6948-811B-19E0D49956FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABF0F3DD-06AC-E543-8F1D-FE790B3084D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12720" yWindow="980" windowWidth="16680" windowHeight="13780" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2200" yWindow="980" windowWidth="27200" windowHeight="13780" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="520" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="523" uniqueCount="153">
   <si>
     <t>中文省份</t>
   </si>
@@ -465,6 +478,21 @@
   </si>
   <si>
     <t>无港澳台新疆西藏</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>cat</t>
+  </si>
+  <si>
+    <t>threshold</t>
+  </si>
+  <si>
+    <t>prov</t>
+  </si>
+  <si>
+    <t>prov_eng</t>
   </si>
 </sst>
 </file>
@@ -847,29 +875,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8EB7DF7-0F1D-3E4A-B697-077A8508AC5B}">
-  <dimension ref="A1:F43"/>
+  <dimension ref="A1:F44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35:D123"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="F44" sqref="F44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>151</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>152</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>148</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>149</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>5</v>
+        <v>150</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -902,6 +930,9 @@
       <c r="E3">
         <v>200</v>
       </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
@@ -936,6 +967,9 @@
       <c r="E5">
         <v>200</v>
       </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
@@ -988,6 +1022,9 @@
       <c r="E8">
         <v>200</v>
       </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
@@ -1022,7 +1059,9 @@
       <c r="E10">
         <v>300</v>
       </c>
-      <c r="F10" s="3"/>
+      <c r="F10" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
@@ -1057,6 +1096,9 @@
       <c r="E12">
         <v>200</v>
       </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
@@ -1076,46 +1118,49 @@
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" s="3" t="s">
+      <c r="A14" t="s">
         <v>20</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" t="s">
         <v>51</v>
       </c>
-      <c r="C14" s="3">
+      <c r="C14">
+        <v>2019</v>
+      </c>
+      <c r="D14" t="s">
+        <v>70</v>
+      </c>
+      <c r="E14">
+        <v>200</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C15" s="3">
         <v>2021</v>
       </c>
-      <c r="D14" t="s">
-        <v>70</v>
-      </c>
-      <c r="E14">
+      <c r="D15" t="s">
+        <v>70</v>
+      </c>
+      <c r="E15">
         <v>300</v>
       </c>
-      <c r="F14" s="3"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>23</v>
-      </c>
-      <c r="B15" t="s">
-        <v>54</v>
-      </c>
-      <c r="C15">
-        <v>2020</v>
-      </c>
-      <c r="D15" t="s">
-        <v>70</v>
-      </c>
-      <c r="E15">
-        <v>400</v>
-      </c>
+      <c r="F15" s="3"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="B16" t="s">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="C16">
         <v>2020</v>
@@ -1127,66 +1172,66 @@
         <v>400</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
+        <v>8</v>
+      </c>
+      <c r="B17" t="s">
+        <v>39</v>
+      </c>
+      <c r="C17">
+        <v>2020</v>
+      </c>
+      <c r="D17" t="s">
+        <v>70</v>
+      </c>
+      <c r="E17">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
         <v>25</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B18" t="s">
         <v>56</v>
       </c>
-      <c r="C17">
+      <c r="C18">
         <v>2021</v>
       </c>
-      <c r="D17" t="s">
-        <v>70</v>
-      </c>
-      <c r="E17">
+      <c r="D18" t="s">
+        <v>70</v>
+      </c>
+      <c r="E18">
         <v>200</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
         <v>19</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B19" t="s">
         <v>50</v>
       </c>
-      <c r="C18">
+      <c r="C19">
         <v>2022</v>
       </c>
-      <c r="D18" t="s">
-        <v>70</v>
-      </c>
-      <c r="E18">
+      <c r="D19" t="s">
+        <v>70</v>
+      </c>
+      <c r="E19">
         <v>400</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
         <v>29</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B20" t="s">
         <v>60</v>
       </c>
-      <c r="C19">
+      <c r="C20">
         <v>2020</v>
-      </c>
-      <c r="D19" t="s">
-        <v>70</v>
-      </c>
-      <c r="E19">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>21</v>
-      </c>
-      <c r="B20" t="s">
-        <v>52</v>
-      </c>
-      <c r="C20">
-        <v>2018</v>
       </c>
       <c r="D20" t="s">
         <v>70</v>
@@ -1195,58 +1240,58 @@
         <v>200</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21" t="s">
+        <v>52</v>
+      </c>
+      <c r="C21">
+        <v>2018</v>
+      </c>
+      <c r="D21" t="s">
+        <v>70</v>
+      </c>
+      <c r="E21">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
         <v>34</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B22" t="s">
         <v>65</v>
       </c>
-      <c r="C21">
+      <c r="C22">
         <v>2021</v>
       </c>
-      <c r="D21" t="s">
-        <v>70</v>
-      </c>
-      <c r="E21">
+      <c r="D22" t="s">
+        <v>70</v>
+      </c>
+      <c r="E22">
         <v>300</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
         <v>16</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B23" t="s">
         <v>47</v>
       </c>
-      <c r="C22">
+      <c r="C23">
         <v>2020</v>
       </c>
-      <c r="D22" t="s">
-        <v>70</v>
-      </c>
-      <c r="E22">
+      <c r="D23" t="s">
+        <v>70</v>
+      </c>
+      <c r="E23">
         <v>400</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>32</v>
-      </c>
-      <c r="B23" t="s">
-        <v>63</v>
-      </c>
-      <c r="C23">
-        <v>2021</v>
-      </c>
-      <c r="D23" t="s">
-        <v>70</v>
-      </c>
-      <c r="E23">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>32</v>
       </c>
@@ -1254,38 +1299,41 @@
         <v>63</v>
       </c>
       <c r="C24">
+        <v>2021</v>
+      </c>
+      <c r="D24" t="s">
+        <v>70</v>
+      </c>
+      <c r="E24">
+        <v>200</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>32</v>
+      </c>
+      <c r="B25" t="s">
+        <v>63</v>
+      </c>
+      <c r="C25">
         <v>2024</v>
       </c>
-      <c r="D24" t="s">
-        <v>70</v>
-      </c>
-      <c r="E24">
+      <c r="D25" t="s">
+        <v>70</v>
+      </c>
+      <c r="E25">
         <v>400</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
         <v>10</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B26" t="s">
         <v>41</v>
-      </c>
-      <c r="C25">
-        <v>2020</v>
-      </c>
-      <c r="D25" t="s">
-        <v>70</v>
-      </c>
-      <c r="E25">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>27</v>
-      </c>
-      <c r="B26" t="s">
-        <v>58</v>
       </c>
       <c r="C26">
         <v>2020</v>
@@ -1297,7 +1345,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>27</v>
       </c>
@@ -1305,38 +1353,41 @@
         <v>58</v>
       </c>
       <c r="C27">
+        <v>2020</v>
+      </c>
+      <c r="D27" t="s">
+        <v>70</v>
+      </c>
+      <c r="E27">
+        <v>200</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>58</v>
+      </c>
+      <c r="C28">
         <v>2022</v>
       </c>
-      <c r="D27" t="s">
-        <v>70</v>
-      </c>
-      <c r="E27">
+      <c r="D28" t="s">
+        <v>70</v>
+      </c>
+      <c r="E28">
         <v>300</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
         <v>11</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B29" t="s">
         <v>42</v>
-      </c>
-      <c r="C28">
-        <v>2020</v>
-      </c>
-      <c r="D28" t="s">
-        <v>70</v>
-      </c>
-      <c r="E28">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>9</v>
-      </c>
-      <c r="B29" t="s">
-        <v>40</v>
       </c>
       <c r="C29">
         <v>2020</v>
@@ -1348,24 +1399,24 @@
         <v>400</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="B30" t="s">
-        <v>62</v>
+        <v>40</v>
       </c>
       <c r="C30">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="D30" t="s">
         <v>70</v>
       </c>
       <c r="E30">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>31</v>
       </c>
@@ -1373,21 +1424,24 @@
         <v>62</v>
       </c>
       <c r="C31">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="D31" t="s">
         <v>70</v>
       </c>
       <c r="E31">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+        <v>200</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>44</v>
+        <v>62</v>
       </c>
       <c r="C32">
         <v>2020</v>
@@ -1396,15 +1450,15 @@
         <v>70</v>
       </c>
       <c r="E32">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="B33" t="s">
-        <v>66</v>
+        <v>44</v>
       </c>
       <c r="C33">
         <v>2020</v>
@@ -1416,12 +1470,12 @@
         <v>200</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="B34" t="s">
-        <v>45</v>
+        <v>66</v>
       </c>
       <c r="C34">
         <v>2020</v>
@@ -1433,12 +1487,12 @@
         <v>200</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B35" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C35">
         <v>2020</v>
@@ -1450,7 +1504,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>15</v>
       </c>
@@ -1458,24 +1512,24 @@
         <v>46</v>
       </c>
       <c r="C36">
+        <v>2020</v>
+      </c>
+      <c r="D36" t="s">
+        <v>70</v>
+      </c>
+      <c r="E36">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>15</v>
+      </c>
+      <c r="B37" t="s">
+        <v>46</v>
+      </c>
+      <c r="C37">
         <v>2021</v>
-      </c>
-      <c r="D36" t="s">
-        <v>70</v>
-      </c>
-      <c r="E36">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
-        <v>12</v>
-      </c>
-      <c r="B37" t="s">
-        <v>43</v>
-      </c>
-      <c r="C37">
-        <v>2020</v>
       </c>
       <c r="D37" t="s">
         <v>70</v>
@@ -1483,13 +1537,16 @@
       <c r="E37">
         <v>400</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="B38" t="s">
-        <v>68</v>
+        <v>43</v>
       </c>
       <c r="C38">
         <v>2020</v>
@@ -1498,10 +1555,10 @@
         <v>70</v>
       </c>
       <c r="E38">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>37</v>
       </c>
@@ -1509,33 +1566,36 @@
         <v>68</v>
       </c>
       <c r="C39">
+        <v>2020</v>
+      </c>
+      <c r="D39" t="s">
+        <v>70</v>
+      </c>
+      <c r="E39">
+        <v>100</v>
+      </c>
+      <c r="F39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>37</v>
+      </c>
+      <c r="B40" t="s">
+        <v>68</v>
+      </c>
+      <c r="C40">
         <v>2021</v>
       </c>
-      <c r="D39" t="s">
-        <v>70</v>
-      </c>
-      <c r="E39">
+      <c r="D40" t="s">
+        <v>70</v>
+      </c>
+      <c r="E40">
         <v>200</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
-        <v>36</v>
-      </c>
-      <c r="B40" t="s">
-        <v>67</v>
-      </c>
-      <c r="C40">
-        <v>2020</v>
-      </c>
-      <c r="D40" t="s">
-        <v>70</v>
-      </c>
-      <c r="E40">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>36</v>
       </c>
@@ -1543,24 +1603,27 @@
         <v>67</v>
       </c>
       <c r="C41">
+        <v>2020</v>
+      </c>
+      <c r="D41" t="s">
+        <v>70</v>
+      </c>
+      <c r="E41">
+        <v>300</v>
+      </c>
+      <c r="F41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>36</v>
+      </c>
+      <c r="B42" t="s">
+        <v>67</v>
+      </c>
+      <c r="C42">
         <v>2021</v>
-      </c>
-      <c r="D41" t="s">
-        <v>70</v>
-      </c>
-      <c r="E41">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
-        <v>28</v>
-      </c>
-      <c r="B42" t="s">
-        <v>59</v>
-      </c>
-      <c r="C42">
-        <v>2020</v>
       </c>
       <c r="D42" t="s">
         <v>70</v>
@@ -1569,8 +1632,25 @@
         <v>400</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
+        <v>28</v>
+      </c>
+      <c r="B43" t="s">
+        <v>59</v>
+      </c>
+      <c r="C43">
+        <v>2020</v>
+      </c>
+      <c r="D43" t="s">
+        <v>70</v>
+      </c>
+      <c r="E43">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
         <v>147</v>
       </c>
     </row>
@@ -1583,8 +1663,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H67"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="A49" sqref="A49:F49"/>
+    <sheetView topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="A30" sqref="A30:XFD30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/raw/China_Procurement_Thresholds_2014_2024.xlsx
+++ b/raw/China_Procurement_Thresholds_2014_2024.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yxy/UChi/Summer2025/Procurement/raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABF0F3DD-06AC-E543-8F1D-FE790B3084D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF0D3F2A-88AA-1348-A029-F34D6068B812}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2200" yWindow="980" windowWidth="27200" windowHeight="13780" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -564,13 +564,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -877,8 +878,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8EB7DF7-0F1D-3E4A-B697-077A8508AC5B}">
   <dimension ref="A1:F44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="F44" sqref="F44"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="E40" sqref="E40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1138,7 +1139,7 @@
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="4" t="s">
         <v>20</v>
       </c>
       <c r="B15" s="3" t="s">
@@ -1224,7 +1225,7 @@
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
+      <c r="A20" s="2" t="s">
         <v>29</v>
       </c>
       <c r="B20" t="s">
@@ -1241,7 +1242,7 @@
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
+      <c r="A21" s="2" t="s">
         <v>21</v>
       </c>
       <c r="B21" t="s">
@@ -1258,7 +1259,7 @@
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
+      <c r="A22" s="2" t="s">
         <v>34</v>
       </c>
       <c r="B22" t="s">
@@ -1366,7 +1367,7 @@
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
+      <c r="A28" s="2" t="s">
         <v>27</v>
       </c>
       <c r="B28" t="s">
@@ -1417,7 +1418,7 @@
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
+      <c r="A31" s="2" t="s">
         <v>31</v>
       </c>
       <c r="B31" t="s">
@@ -1454,7 +1455,7 @@
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
+      <c r="A33" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B33" t="s">
@@ -1471,7 +1472,7 @@
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
+      <c r="A34" s="2" t="s">
         <v>35</v>
       </c>
       <c r="B34" t="s">
@@ -1488,7 +1489,7 @@
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
+      <c r="A35" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B35" t="s">
@@ -1559,7 +1560,7 @@
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
+      <c r="A39" s="2" t="s">
         <v>37</v>
       </c>
       <c r="B39" t="s">
@@ -1579,7 +1580,7 @@
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
+      <c r="A40" s="2" t="s">
         <v>37</v>
       </c>
       <c r="B40" t="s">
